--- a/natmiOut/OldD0/LR-pairs_lrc2p/Wnt2-Fzd5.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Wnt2-Fzd5.xlsx
@@ -528,16 +528,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.729997271659561</v>
+        <v>0.8330250000000001</v>
       </c>
       <c r="H2">
-        <v>0.729997271659561</v>
+        <v>2.499075</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.73534820884493</v>
+        <v>9.920975666666667</v>
       </c>
       <c r="N2">
-        <v>5.73534820884493</v>
+        <v>29.762927</v>
       </c>
       <c r="O2">
-        <v>0.4034254023992214</v>
+        <v>0.5379109985456686</v>
       </c>
       <c r="P2">
-        <v>0.4034254023992214</v>
+        <v>0.5379109985456685</v>
       </c>
       <c r="Q2">
-        <v>4.186788544474349</v>
+        <v>8.264420754725002</v>
       </c>
       <c r="R2">
-        <v>4.186788544474349</v>
+        <v>74.37978679252501</v>
       </c>
       <c r="S2">
-        <v>0.4034254023992214</v>
+        <v>0.5379109985456686</v>
       </c>
       <c r="T2">
-        <v>0.4034254023992214</v>
+        <v>0.5379109985456685</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +590,16 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.729997271659561</v>
+        <v>0.8330250000000001</v>
       </c>
       <c r="H3">
-        <v>0.729997271659561</v>
+        <v>2.499075</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -608,34 +608,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.11894837385395</v>
+        <v>6.153936333333334</v>
       </c>
       <c r="N3">
-        <v>6.11894837385395</v>
+        <v>18.461809</v>
       </c>
       <c r="O3">
-        <v>0.4304079055174301</v>
+        <v>0.3336637594195427</v>
       </c>
       <c r="P3">
-        <v>0.4304079055174301</v>
+        <v>0.3336637594195427</v>
       </c>
       <c r="Q3">
-        <v>4.466815618339091</v>
+        <v>5.126382814075002</v>
       </c>
       <c r="R3">
-        <v>4.466815618339091</v>
+        <v>46.13744532667501</v>
       </c>
       <c r="S3">
-        <v>0.4304079055174301</v>
+        <v>0.3336637594195427</v>
       </c>
       <c r="T3">
-        <v>0.4304079055174301</v>
+        <v>0.3336637594195427</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +652,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.729997271659561</v>
+        <v>0.8330250000000001</v>
       </c>
       <c r="H4">
-        <v>0.729997271659561</v>
+        <v>2.499075</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -670,34 +670,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.36232977433292</v>
+        <v>2.368614333333333</v>
       </c>
       <c r="N4">
-        <v>2.36232977433292</v>
+        <v>7.105843</v>
       </c>
       <c r="O4">
-        <v>0.1661666920833485</v>
+        <v>0.1284252420347888</v>
       </c>
       <c r="P4">
-        <v>0.1661666920833485</v>
+        <v>0.1284252420347888</v>
       </c>
       <c r="Q4">
-        <v>1.724494290023178</v>
+        <v>1.973114955025</v>
       </c>
       <c r="R4">
-        <v>1.724494290023178</v>
+        <v>17.758034595225</v>
       </c>
       <c r="S4">
-        <v>0.1661666920833485</v>
+        <v>0.1284252420347888</v>
       </c>
       <c r="T4">
-        <v>0.1661666920833485</v>
+        <v>0.1284252420347888</v>
       </c>
     </row>
   </sheetData>
